--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value139.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value139.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9273658724461565</v>
+        <v>1.754434108734131</v>
       </c>
       <c r="B1">
-        <v>1.777524100820465</v>
+        <v>1.875431060791016</v>
       </c>
       <c r="C1">
-        <v>3.221219237595084</v>
+        <v>5.045635223388672</v>
       </c>
       <c r="D1">
-        <v>2.609576937974753</v>
+        <v>1.745492219924927</v>
       </c>
       <c r="E1">
-        <v>1.038177682390296</v>
+        <v>0.4892308712005615</v>
       </c>
     </row>
   </sheetData>
